--- a/Thresholding/Results/MatchComparisonResults.xlsx
+++ b/Thresholding/Results/MatchComparisonResults.xlsx
@@ -13,39 +13,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_SD</t>
@@ -105,7 +114,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/MatchComparisonResults.xlsx
+++ b/Thresholding/Results/MatchComparisonResults.xlsx
@@ -13,39 +13,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_SD</t>
@@ -114,247 +117,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>89.601769911504419</v>
+        <v>93.139448173005221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>89.026548672566378</v>
+        <v>92.244593586875467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>90</v>
+        <v>93.437733035048481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.451327433628322</v>
+        <v>89.560029828486208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.849557522123888</v>
+        <v>89.261744966442961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>88.274336283185846</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>82.743362831858406</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>83.318584070796462</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.769911504424769</v>
+        <v>82.028337061894106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>82.30088495575221</v>
+        <v>84.116331096196873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>80.04424778761063</v>
+        <v>76.510067114093957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.946902654867259</v>
+        <v>80.164056674123785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>82.079646017699119</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>81.106194690265482</v>
+        <v>81.87919463087249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>81.504424778761063</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>91.637168141592923</v>
+        <v>92.393736017897083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>92.16814159292035</v>
+        <v>95.227442207307973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>94.646017699115049</v>
+        <v>97.017151379567494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.495575221238937</v>
+        <v>91.946308724832221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.495575221238937</v>
+        <v>92.393736017897083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>89.159292035398224</v>
+        <v>92.915734526472775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.787610619469021</v>
+        <v>90.902311707680838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.920353982300881</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>88.185840707964601</v>
+        <v>90.082028337061899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>85.088495575221231</v>
+        <v>85.90604026845638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.141592920353986</v>
+        <v>82.997762863534675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.575221238938042</v>
+        <v>86.278896346010441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>84.778761061946909</v>
+        <v>84.712900820283366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80</v>
+        <v>77.926920208799402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>92.30088495575221</v>
+        <v>93.363161819537652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.911504424778769</v>
+        <v>95.973154362416096</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>88.495575221238937</v>
+        <v>93.214019388516036</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>89.601769911504419</v>
+        <v>96.346010439970172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>91.327433628318587</v>
+        <v>95.600298284862035</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>89.380530973451329</v>
+        <v>92.244593586875467</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90.530973451327441</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>86.061946902654867</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>87.964601769911496</v>
+        <v>90.529455630126776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.371681415929203</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>83.230088495575217</v>
+        <v>83.296047725577921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>84.292035398230098</v>
+        <v>85.384041759880688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>85</v>
+        <v>85.607755406413119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>82.079646017699119</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>88.893805309734503</v>
+        <v>89.336316181953762</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.707964601769916</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>90</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.964601769911511</v>
+        <v>82.699478001491428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>90.265486725663706</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/MatchComparisonResults.xlsx
+++ b/Thresholding/Results/MatchComparisonResults.xlsx
@@ -13,43 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -120,152 +84,248 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0">
+        <v>90.7055630936228</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0">
+        <v>90.841248303934876</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0">
+        <v>91.044776119402982</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0">
+        <v>89.213025780189952</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
+      <c r="A6" s="0">
+        <v>88.738127544097694</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
+      <c r="A7" s="0">
+        <v>89.009497964721845</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" s="0">
+        <v>81.614654002713706</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
+      <c r="A9" s="0">
+        <v>83.514246947082768</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
+      <c r="A10" s="0">
+        <v>78.697421981004069</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
+      <c r="A11" s="0">
+        <v>80.800542740841252</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
+      <c r="A12" s="0">
+        <v>75.373134328358205</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
+      <c r="A13" s="0">
+        <v>80.732700135685207</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
+      <c r="A14" s="0">
+        <v>80.5291723202171</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
+      <c r="A15" s="0">
+        <v>79.850746268656707</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
+      <c r="A16" s="0">
+        <v>80.461329715061055</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
+      <c r="A17" s="0">
+        <v>91.723202170963376</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
+      <c r="A18" s="0">
+        <v>92.198100407055634</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
+      <c r="A19" s="0">
+        <v>95.793758480325636</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>86.092265943012208</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>87.652645861601087</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>87.381275440976935</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
+      <c r="A23" s="0">
+        <v>87.381275440976935</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
+      <c r="A24" s="0">
+        <v>86.295793758480315</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
+      <c r="A25" s="0">
+        <v>86.431478968792391</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
+      <c r="A26" s="0">
+        <v>80.800542740841252</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
+      <c r="A27" s="0">
+        <v>80.868385345997282</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
+      <c r="A28" s="0">
+        <v>85.549525101763919</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
+      <c r="A29" s="0">
+        <v>82.15739484396201</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0">
+        <v>83.039348710990495</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0">
+        <v>82.496607869742206</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
+      <c r="A32" s="0">
+        <v>86.838534599728632</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
+      <c r="A33" s="0">
+        <v>86.974219810040708</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
+      <c r="A34" s="0">
+        <v>90.773405698778831</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
+      <c r="A35" s="0">
+        <v>83.514246947082768</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
+      <c r="A36" s="0">
+        <v>82.767978290366358</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
+      <c r="A37" s="0">
+        <v>83.039348710990495</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
+      <c r="A38" s="0">
+        <v>80.122116689280858</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
+      <c r="A39" s="0">
+        <v>86.567164179104466</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
+      <c r="A40" s="0">
+        <v>86.227951153324284</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
+      <c r="A41" s="0">
+        <v>81.004070556309358</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
+      <c r="A42" s="0">
+        <v>83.039348710990495</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
+      <c r="A43" s="0">
+        <v>84.73541383989145</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
+      <c r="A44" s="0">
+        <v>78.629579375848039</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
+      <c r="A45" s="0">
+        <v>86.499321573948436</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
+      <c r="A46" s="0">
+        <v>86.838534599728632</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
+      <c r="A47" s="0">
+        <v>79.375848032564448</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0">
+        <v>81.682496607869737</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0">
+        <v>89.416553595658073</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Results/MatchComparisonResults.xlsx
+++ b/Thresholding/Results/MatchComparisonResults.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
   <si>
     <t>HK_R_acc_SD</t>
   </si>
@@ -84,247 +87,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>90.7055630936228</v>
+        <v>78.057700121901661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>90.841248303934876</v>
+        <v>77.651361235270215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>91.044776119402982</v>
+        <v>78.017066233238523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.213025780189952</v>
+        <v>79.926859000406338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.738127544097694</v>
+        <v>78.179601787891102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.009497964721845</v>
+        <v>80.414465664364073</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>81.614654002713706</v>
+        <v>75.822836245428689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>83.514246947082768</v>
+        <v>77.895164567249083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>78.697421981004069</v>
+        <v>73.872409589597723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.800542740841252</v>
+        <v>76.757415684681021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.373134328358205</v>
+        <v>78.13896789922795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>80.732700135685207</v>
+        <v>80.333197887037784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.5291723202171</v>
+        <v>71.271840715156443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.850746268656707</v>
+        <v>72.247054043071927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>80.461329715061055</v>
+        <v>72.003250711093045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>91.723202170963376</v>
+        <v>88.90694839496139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>92.198100407055634</v>
+        <v>88.785046728971963</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>95.793758480325636</v>
+        <v>91.995123933360418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>86.092265943012208</v>
+        <v>77.570093457943926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.652645861601087</v>
+        <v>77.529459569280775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.381275440976935</v>
+        <v>79.236082893132874</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.381275440976935</v>
+        <v>85.046728971962608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>86.295793758480315</v>
+        <v>76.391710686712727</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.431478968792391</v>
+        <v>76.107273466070708</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>80.800542740841252</v>
+        <v>80.495733441690362</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.868385345997282</v>
+        <v>80.373831775700936</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.549525101763919</v>
+        <v>83.055668427468504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.15739484396201</v>
+        <v>81.023973994311262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>83.039348710990495</v>
+        <v>80.86143843965867</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>82.496607869742206</v>
+        <v>79.195449004469737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>86.838534599728632</v>
+        <v>76.107273466070708</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>86.974219810040708</v>
+        <v>74.197480698902879</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>90.773405698778831</v>
+        <v>81.552214546932149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.514246947082768</v>
+        <v>75.050792360828936</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>82.767978290366358</v>
+        <v>74.806989028850055</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>83.039348710990495</v>
+        <v>73.709874034945145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.122116689280858</v>
+        <v>74.603819585534339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>86.567164179104466</v>
+        <v>75.294595692807803</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.227951153324284</v>
+        <v>75.335229581470941</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.004070556309358</v>
+        <v>80.292563998374646</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>83.039348710990495</v>
+        <v>81.227143437626978</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>84.73541383989145</v>
+        <v>82.121088988216172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>78.629579375848039</v>
+        <v>78.626574563185699</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.499321573948436</v>
+        <v>86.021942299878091</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.838534599728632</v>
+        <v>85.29053230394149</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>79.375848032564448</v>
+        <v>79.073547338480282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.682496607869737</v>
+        <v>78.464039008533121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>89.416553595658073</v>
+        <v>83.58390898008939</v>
       </c>
     </row>
   </sheetData>
